--- a/pred_ohlcv/54_21/2019-10-29 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LBA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>356690.3359</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>286678.1309</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>245582.6884</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>245582.6884</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>245582.6884</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>245582.6884</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>252059.0667</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>259544.526</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>259544.526</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>257376.4942</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>291486.4942</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>291486.4942</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>290919.8276</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>290919.8276</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>290919.8276</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>290187.5044</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>290187.5044</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>297483.5044</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>296208.2</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>296208.2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>295553.4733</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>295553.4733</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>252923.2375</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>252923.2375</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>333993.4443</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>334662.4443</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4314746.911937013</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3942765.532437013</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4540814.132613048</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4867643.123013048</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4666965.651513048</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5062024.462313048</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5643860.982715089</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7766449.869576592</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7626724.361676592</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>7372615.626976592</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>7397599.249776592</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>7440550.938976592</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>7645104.583687272</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7571128.210987272</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>6574585.877787272</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6162123.177029377</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5570636.727329377</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6041935.561329377</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>6067256.721029377</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6131763.863929377</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LBA ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>259544.526</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>259544.526</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>257376.4942</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>291486.4942</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>290187.5044</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>290187.5044</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>292483.5044</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>297483.5044</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>296208.2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>296208.2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>295553.4733</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>295553.4733</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>252923.2375</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>252923.2375</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>334662.4443</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>334662.4443</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4314746.911937013</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3942765.532437013</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4540814.132613048</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4867643.123013048</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4666965.651513048</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5062024.462313048</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5643860.982715089</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>8039275.683287271</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>7796089.627987271</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>7722783.272887271</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7746473.873087271</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>7668057.599387271</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7766449.869576592</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7626724.361676592</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7562124.215876592</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>7645104.583687272</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7571128.210987272</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6162123.177029377</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5570636.727329377</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6041935.561329377</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>6067256.721029377</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6131763.863929377</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
